--- a/코드 분석.xlsx
+++ b/코드 분석.xlsx
@@ -9,15 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26531" windowHeight="21002" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26531" windowHeight="21002" tabRatio="829" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
     <sheet name="CSchedule" sheetId="4" r:id="rId2"/>
     <sheet name="Process" sheetId="5" r:id="rId3"/>
-    <sheet name="App-Network" sheetId="6" r:id="rId4"/>
-    <sheet name="EventLoop" sheetId="1" r:id="rId5"/>
-    <sheet name="TcpAccept" sheetId="2" r:id="rId6"/>
+    <sheet name="CClient" sheetId="7" r:id="rId4"/>
+    <sheet name="net - iocp-accept" sheetId="11" r:id="rId5"/>
+    <sheet name="net - iocp-recv" sheetId="8" r:id="rId6"/>
+    <sheet name="net - iocp-send" sheetId="9" r:id="rId7"/>
+    <sheet name="net - close" sheetId="10" r:id="rId8"/>
+    <sheet name="App-Network" sheetId="6" r:id="rId9"/>
+    <sheet name="EventLoop" sheetId="1" r:id="rId10"/>
+    <sheet name="TcpAccept" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -315,713 +320,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>60385</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>146649</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>189782</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>103517</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="60385" y="146649"/>
-          <a:ext cx="7720642" cy="353683"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>스케줄 클래스는 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>EventLoop</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>를 사용하여 클라이언트를 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>accept </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>처리를 하고 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>IOServer </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>풀에 수신된 소켓을 분배한다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>120770</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>112143</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>659235</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>130733</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="120770" y="707366"/>
-          <a:ext cx="5369257" cy="4780371"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>77637</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>77638</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>168470</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>107491</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="77637" y="5831457"/>
-          <a:ext cx="5611739" cy="1021891"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>60385</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>94891</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>176621</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>38778</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="60385" y="7237563"/>
-          <a:ext cx="7707481" cy="3316815"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>138023</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>77638</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>181155</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>77638</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="138023" y="77638"/>
-          <a:ext cx="6254151" cy="396815"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>Schedule</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>에 의해 발생된 클라이언트 소켓을 처리하는 역할을 하며 스레드를 가지고 있다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>215660</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>69011</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>176592</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>70140</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="215660" y="664234"/>
-          <a:ext cx="5481838" cy="6945393"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>543464</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25878</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>82746</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>12151</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6064370" y="621101"/>
-          <a:ext cx="5750301" cy="5343276"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>120769</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>17252</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>629728</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>94890</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="120769" y="215660"/>
-          <a:ext cx="5339751" cy="474453"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>네트워크 이벤트를 담당하는 클래스 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>구현은 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>IOCP,epoll,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t> select</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>로 나누어져 있다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>207033</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>34506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>672367</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>108153</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="207033" y="828136"/>
-          <a:ext cx="8746692" cy="5629059"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>207033</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>43132</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>239940</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>156563</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="207033" y="6788989"/>
-          <a:ext cx="6243926" cy="11422661"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>112144</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>246140</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>164039</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2" y="18564046"/>
-          <a:ext cx="7837383" cy="13345201"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>319177</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>181154</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>678473</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>178410</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7910422" y="21609169"/>
-          <a:ext cx="5880202" cy="5949483"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>51759</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>172529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38094</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>24608</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="51759" y="32116144"/>
-          <a:ext cx="7577580" cy="10764494"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1355,6 +654,2828 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51758</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>8626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>267419</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>51758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572664" y="6357668"/>
+          <a:ext cx="905774" cy="439947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400"/>
+            <a:t>IOCP</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336430</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>51758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552091</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>94890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857336" y="13741879"/>
+          <a:ext cx="905774" cy="439947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400"/>
+            <a:t>epoll</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60385</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>146649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>189782</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>103517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60385" y="146649"/>
+          <a:ext cx="7720642" cy="353683"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>스케줄 클래스는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EventLoop</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>를 사용하여 클라이언트를 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>accept </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>처리를 하고 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IOServer </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>풀에 수신된 소켓을 분배한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>120770</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>112143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>659235</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>130733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="120770" y="707366"/>
+          <a:ext cx="5369257" cy="4780371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>77637</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>77638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168470</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="77637" y="5831457"/>
+          <a:ext cx="5611739" cy="1021891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60385</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>94891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176621</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60385" y="7237563"/>
+          <a:ext cx="7707481" cy="3316815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>138023</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>77638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181155</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>77638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="138023" y="77638"/>
+          <a:ext cx="6254151" cy="396815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Schedule</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>에 의해 발생된 클라이언트 소켓을 처리하는 역할을 하며 스레드를 가지고 있다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215660</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>176592</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>70140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215660" y="664234"/>
+          <a:ext cx="5481838" cy="6945393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>543464</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>82746</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6064370" y="621101"/>
+          <a:ext cx="5750301" cy="5343276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>94891</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>529435</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>16025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94891" y="224287"/>
+          <a:ext cx="5265336" cy="6339187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>181154</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>415360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>148760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5702060" y="1518249"/>
+          <a:ext cx="9205677" cy="4979553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>224287</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>146650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>398450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>173124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="224287" y="7884544"/>
+          <a:ext cx="7075295" cy="4589848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>189781</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>499811</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>153845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="189781" y="1406106"/>
+          <a:ext cx="6521049" cy="6287226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>267418</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>86265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>132512</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>108233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5788324" y="86265"/>
+          <a:ext cx="7456339" cy="1212413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241540</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>271175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7832785" y="1725282"/>
+          <a:ext cx="7620881" cy="3282175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>86265</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>347607</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>87645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5607171" y="7867290"/>
+          <a:ext cx="5092134" cy="355064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>77638</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>172528</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69011</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8358996" y="4848045"/>
+          <a:ext cx="3545457" cy="379562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Accept</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 요청이 완료되면</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>새로운 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Accept</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>를 요청한다</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>163900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>598444</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="163900" y="1250830"/>
+          <a:ext cx="5265336" cy="909310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>293294</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442055</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>55833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5814200" y="0"/>
+          <a:ext cx="4979553" cy="1047871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276044</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>479458</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>89463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7177176" y="1052422"/>
+          <a:ext cx="5724320" cy="822709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>103516</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>653334</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>29540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="103516" y="2587925"/>
+          <a:ext cx="6070724" cy="5377917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508962</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>94891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297269</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8790320" y="1880559"/>
+          <a:ext cx="3238874" cy="2338225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>569340</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>8627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>330513</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>129588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6780359" y="7349706"/>
+          <a:ext cx="7352418" cy="4485927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129392</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237545</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>119543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="129392" y="8462514"/>
+          <a:ext cx="5629059" cy="6339187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>474451</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>181156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342816</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>117791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6685470" y="12680831"/>
+          <a:ext cx="6079384" cy="5888862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>258796</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>163905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>543466</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>155278</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="꺾인 연결선 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6853690" y="11580966"/>
+          <a:ext cx="2967486" cy="2355010"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>224287</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>189780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>617645</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>109376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505645" y="5149969"/>
+          <a:ext cx="7984604" cy="1506856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>60384</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>179892</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>58926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13172535" y="759124"/>
+          <a:ext cx="6330527" cy="4061583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>448574</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>60384</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>155276</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="직선 화살표 연결선 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11490385" y="2789916"/>
+          <a:ext cx="1682150" cy="2920771"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>207037</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>17253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>646981</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="꺾인 연결선 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2782021" y="2963175"/>
+          <a:ext cx="7021901" cy="1130057"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 33047"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDotDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>603850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>103517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>414069</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>43132</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="꺾인 연결선 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6814869" y="7047781"/>
+          <a:ext cx="10161917" cy="4899804"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100764"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDotDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621102</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>74924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276044</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>103517</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="직선 화살표 연결선 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1311215" y="1463777"/>
+          <a:ext cx="5865961" cy="4195151"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396815</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>405441</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="직선 화살표 연결선 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9368287" y="3390181"/>
+          <a:ext cx="8626" cy="1768415"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422696</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>103517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276045</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25879</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="직선 화살표 연결선 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8013941" y="5658928"/>
+          <a:ext cx="2613802" cy="1708030"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552090</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>43134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207034</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="직선 화살표 연결선 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3312543" y="12542809"/>
+          <a:ext cx="3795623" cy="1630391"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86265</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>181155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>453066</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158133</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="그룹 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7677510" y="379563"/>
+          <a:ext cx="10028386" cy="2953091"/>
+          <a:chOff x="4157932" y="215661"/>
+          <a:chExt cx="10028386" cy="2953091"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="그림 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4157932" y="215661"/>
+            <a:ext cx="10028386" cy="2953091"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6021238" y="448575"/>
+            <a:ext cx="3907765" cy="327804"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="28575" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>앞에 요청한 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>send</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>사가 완료 되지 않았거나</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>다 못 보내었다면</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>681486</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>382038</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>93095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4132052" y="3856007"/>
+          <a:ext cx="7291797" cy="3974982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>112143</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>77638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73075</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="112143" y="8013940"/>
+          <a:ext cx="5481838" cy="6027424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>655608</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>472013</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>130396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4106174" y="12102860"/>
+          <a:ext cx="6027424" cy="4693770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>94890</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>127220</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>86417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11826815" y="3907766"/>
+          <a:ext cx="8313688" cy="6694251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>232913</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664234</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2303253" y="405442"/>
+          <a:ext cx="5262113" cy="1069675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1800" b="1" i="1"/>
+            <a:t>이 서버 프로그램에서는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1" i="1"/>
+            <a:t>IOCP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1800" b="1" i="1"/>
+            <a:t>로 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1" i="1"/>
+            <a:t>Send</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1800" b="1" i="1"/>
+            <a:t>를 요청하는 곳과</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1" i="1"/>
+            <a:t>, Send</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1" i="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1800" b="1" i="1" baseline="0"/>
+            <a:t>완료를 처리하는 곳이 같은 스레드이다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1" i="1" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800" b="1" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>293297</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>69012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>439947</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>43133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="293297" y="69012"/>
+          <a:ext cx="7047782" cy="370936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1"/>
+            <a:t>네트워크 라이브러리쪽에서 애플리케이션에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1"/>
+            <a:t>Close</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>상태를 알려주지 않는다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552090</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>359257</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552090" y="715992"/>
+          <a:ext cx="8088525" cy="1524176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>534838</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>112143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>680326</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="534838" y="2691441"/>
+          <a:ext cx="6356507" cy="9110416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>120769</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>629728</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>94890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="120769" y="215660"/>
+          <a:ext cx="5339751" cy="474453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>네트워크 이벤트를 담당하는 클래스 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>구현은 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>IOCP,epoll,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>로 나누어져 있다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>207033</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>672367</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>108153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207033" y="828136"/>
+          <a:ext cx="8746692" cy="5629059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>207033</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>43132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239940</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>156563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207033" y="6788989"/>
+          <a:ext cx="6243926" cy="11422661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>112144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>246140</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>164039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2" y="18564046"/>
+          <a:ext cx="7837383" cy="13345201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319177</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>181154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>678473</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>178410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7910422" y="21609169"/>
+          <a:ext cx="5880202" cy="5949483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51759</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>172529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38094</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>24608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51759" y="32116144"/>
+          <a:ext cx="7577580" cy="10764494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>612476</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>112143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138023</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>155275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5443268" y="6858000"/>
+          <a:ext cx="905774" cy="439947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400"/>
+            <a:t>IOCP</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>51759</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>138023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>267420</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>181155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6952891" y="18391517"/>
+          <a:ext cx="905774" cy="439947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400"/>
+            <a:t>epoll</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1637,6 +3758,38 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="N94" sqref="N94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -1658,7 +3811,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -1673,12 +3826,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1686,8 +3842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="P159" sqref="P159"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -1702,8 +3858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -1712,4 +3868,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/코드 분석.xlsx
+++ b/코드 분석.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26531" windowHeight="21002" tabRatio="829" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26531" windowHeight="21002" tabRatio="829" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="App-Network" sheetId="6" r:id="rId9"/>
     <sheet name="EventLoop" sheetId="1" r:id="rId10"/>
     <sheet name="TcpAccept" sheetId="2" r:id="rId11"/>
+    <sheet name="Timer" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -781,6 +782,502 @@
             <a:t>epoll</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>181154</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>499267</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>153677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="181154" y="1052423"/>
+          <a:ext cx="8599471" cy="6243926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>224287</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319178</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>8626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="224287" y="163902"/>
+          <a:ext cx="8376249" cy="836762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>특정 시간이</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>되면 동작하도록 한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>취소 가능하지만</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>반복은 불가능 하다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>EvenLoop</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>에서 타이머에 등록한 작업을 호출한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327804</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>172528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>272955</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>71565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="327804" y="12076981"/>
+          <a:ext cx="10296849" cy="2875150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>483078</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>137635</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>174845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9454550" y="5891840"/>
+          <a:ext cx="6555689" cy="2814530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327804</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>172529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>611854</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>81775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="327804" y="8307238"/>
+          <a:ext cx="6495069" cy="3282175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>336431</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>120771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565249</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>42270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1026544" y="15794967"/>
+          <a:ext cx="7820063" cy="8651431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>353683</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>34506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>614447</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>155607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10705381" y="13526219"/>
+          <a:ext cx="7161896" cy="2303584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508960</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>69010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>224288</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>60384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410092" y="12965501"/>
+          <a:ext cx="6616460" cy="388189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>타이머 작업이 추가된 것이 있으면 첫번째 타이머가 동작해야할 시간에는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>GQCS </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>대기에서 깨어나야 한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414067</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>112143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>224287</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>103517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934973" y="15984747"/>
+          <a:ext cx="2570672" cy="388189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>타이머 작업 시간이 되면 실행한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3790,6 +4287,22 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="P85" sqref="P85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -3842,7 +4355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -3890,7 +4403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
